--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IM_4.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IM_4.XLSX
@@ -130,7 +130,7 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>MARIANA COUTINHO PONTES</t>
+    <t>MARIANA COUTINHO PORTES</t>
   </si>
   <si>
     <t> </t>
@@ -172,7 +172,7 @@
     <t>IM_4</t>
   </si>
   <si>
-    <t>MARIANA COUTINHO PONTES</t>
+    <t>MARIANA COUTINHO PORTES</t>
   </si>
   <si>
     <t>Matr.: 3193</t>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>MARIANA COUTINHO PONTES</v>
+        <v>MARIANA COUTINHO PORTES</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
@@ -3544,7 +3544,7 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>MARIANA COUTINHO PONTES</v>
+        <v>MARIANA COUTINHO PORTES</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>MARIANA COUTINHO PONTES</v>
+        <v>MARIANA COUTINHO PORTES</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>MARIANA COUTINHO PONTES</v>
+        <v>MARIANA COUTINHO PORTES</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
@@ -6324,7 +6324,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>MARIANA COUTINHO PONTES</v>
+        <v>MARIANA COUTINHO PORTES</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6603,7 +6603,7 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>MARIANA COUTINHO PONTES</v>
+        <v>MARIANA COUTINHO PORTES</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>MARIANA COUTINHO PONTES</v>
+        <v>MARIANA COUTINHO PORTES</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
